--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ML results" sheetId="1" r:id="rId1"/>
     <sheet name="DL results" sheetId="2" r:id="rId2"/>
     <sheet name="Agreement" sheetId="3" r:id="rId3"/>
+    <sheet name="Rough" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="162">
   <si>
     <t>Models</t>
   </si>
@@ -435,6 +436,85 @@
   </si>
   <si>
     <t>token based</t>
+  </si>
+  <si>
+    <t>नकचरी</t>
+  </si>
+  <si>
+    <t>आफ्नो</t>
+  </si>
+  <si>
+    <t>इज्जत</t>
+  </si>
+  <si>
+    <t>आफै</t>
+  </si>
+  <si>
+    <t>फालिस</t>
+  </si>
+  <si>
+    <t>हैन</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>word-piece 
+tokens</t>
+  </si>
+  <si>
+    <t>##कच</t>
+  </si>
+  <si>
+    <t>न</t>
+  </si>
+  <si>
+    <t>##री</t>
+  </si>
+  <si>
+    <t>फ</t>
+  </si>
+  <si>
+    <t>##ालि</t>
+  </si>
+  <si>
+    <t>##स</t>
+  </si>
+  <si>
+    <t>word-based 
+tokens</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>B-Profanity</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>For BERT-based models</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>&lt;pad&gt;</t>
+  </si>
+  <si>
+    <t>Other models</t>
+  </si>
+  <si>
+    <t>labels -&gt; ID</t>
+  </si>
+  <si>
+    <t>B-
+character_assasination</t>
+  </si>
+  <si>
+    <t>I-
+character_assasination</t>
   </si>
 </sst>
 </file>
@@ -445,7 +525,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,8 +571,61 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +647,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +789,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,38 +837,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,38 +978,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -895,6 +1098,38 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -909,15 +1144,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D12:I18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D12:I18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Percent">
   <autoFilter ref="D12:I18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Folds" dataDxfId="11"/>
-    <tableColumn id="2" name="acc" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="pr" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="rec" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="5" name="f1" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="roc" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="1" name="Folds" dataDxfId="9"/>
+    <tableColumn id="2" name="acc" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="pr" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="rec" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="f1" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="roc" dataDxfId="4" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,26 +1458,26 @@
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1609,19 +1844,19 @@
       <c r="B14" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1920,22 +2155,22 @@
       </c>
     </row>
     <row r="12" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="24" t="s">
         <v>116</v>
       </c>
       <c r="S12">
@@ -1955,22 +2190,22 @@
       </c>
     </row>
     <row r="13" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="26">
         <v>0.79255319148936099</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="26">
         <v>0.79072059938418204</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="26">
         <v>0.79088471849865905</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="26">
         <v>0.79033733211949198</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="26">
         <v>0.787410977939899</v>
       </c>
       <c r="S13">
@@ -1990,22 +2225,22 @@
       </c>
     </row>
     <row r="14" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="30">
+      <c r="D14" s="25">
         <v>2</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="26">
         <v>0.81648936170212705</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="26">
         <v>0.81879112108866803</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <v>0.81501340482573703</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="26">
         <v>0.81310903303274795</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="26">
         <v>0.80811765387065004</v>
       </c>
       <c r="S14">
@@ -2025,22 +2260,22 @@
       </c>
     </row>
     <row r="15" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <v>3</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="26">
         <v>0.78058510638297796</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="26">
         <v>0.78258200276092105</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="26">
         <v>0.78284182305630001</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="26">
         <v>0.78262136429678497</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="26">
         <v>0.78043396444907598</v>
       </c>
       <c r="S15">
@@ -2060,22 +2295,22 @@
       </c>
     </row>
     <row r="16" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="30">
+      <c r="D16" s="25">
         <v>4</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <v>0.78989361702127603</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="26">
         <v>0.79204216262235905</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="26">
         <v>0.79222520107238603</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="26">
         <v>0.79171810633800799</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="26">
         <v>0.78887296624399195</v>
       </c>
       <c r="S16">
@@ -2095,22 +2330,22 @@
       </c>
     </row>
     <row r="17" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="30">
+      <c r="D17" s="25">
         <v>5</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="26">
         <v>0.68617021276595702</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="26">
         <v>0.68570900451459604</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="26">
         <v>0.68322147651006704</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="26">
         <v>0.68375716315006696</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="26">
         <v>0.68368369094974002</v>
       </c>
       <c r="T17" s="19">
@@ -2131,22 +2366,22 @@
       </c>
     </row>
     <row r="18" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="27" t="s">
         <v>121</v>
       </c>
       <c r="T18" t="str">
@@ -2477,7 +2712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:H12"/>
     </sheetView>
   </sheetViews>
@@ -2495,31 +2730,31 @@
       </c>
     </row>
     <row r="5" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2536,22 +2771,22 @@
       <c r="F6" s="17">
         <v>89</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="28">
         <f>F6/D6</f>
         <v>0.18936170212765957</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="29">
         <f>F6/E6</f>
         <v>0.40639269406392692</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="30">
         <f>HARMEAN(G6,H6)</f>
         <v>0.25834542815674888</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="25">
         <v>0.25800000000000001</v>
       </c>
     </row>
@@ -2568,22 +2803,22 @@
       <c r="F7" s="17">
         <v>5</v>
       </c>
-      <c r="G7" s="33">
-        <f t="shared" ref="G7:G13" si="0">F7/D7</f>
+      <c r="G7" s="28">
+        <f t="shared" ref="G7:G12" si="0">F7/D7</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="H7" s="34">
-        <f t="shared" ref="H7:H13" si="1">F7/E7</f>
+      <c r="H7" s="29">
+        <f t="shared" ref="H7:H12" si="1">F7/E7</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="I7" s="35">
-        <f t="shared" ref="I7:I13" si="2">HARMEAN(G7,H7)</f>
+      <c r="I7" s="30">
+        <f t="shared" ref="I7:I12" si="2">HARMEAN(G7,H7)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -2600,22 +2835,22 @@
       <c r="F8" s="17">
         <v>19</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
         <v>3.8152610441767071E-2</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="29">
         <f t="shared" si="1"/>
         <v>5.3072625698324022E-2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="30">
         <f t="shared" si="2"/>
         <v>4.4392523364485979E-2</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="25">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -2632,22 +2867,22 @@
       <c r="F9" s="17">
         <v>98</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>0.53551912568306015</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="29">
         <f t="shared" si="1"/>
         <v>0.31511254019292606</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="30">
         <f t="shared" si="2"/>
         <v>0.39676113360323889</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="25">
         <v>0.39700000000000002</v>
       </c>
     </row>
@@ -2664,22 +2899,22 @@
       <c r="F10" s="17">
         <v>242</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>0.28106852497096402</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="29">
         <f t="shared" si="1"/>
         <v>0.25420168067226889</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>0.26696083838940982</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="25">
         <v>0.26700000000000002</v>
       </c>
     </row>
@@ -2696,22 +2931,22 @@
       <c r="F11" s="17">
         <v>8</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="28">
         <f t="shared" si="0"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="29">
         <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="30">
         <f t="shared" si="2"/>
         <v>0.41025641025641024</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="25">
         <v>0.41</v>
       </c>
     </row>
@@ -2728,22 +2963,22 @@
       <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="29">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="30">
         <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="25">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -2753,4 +2988,346 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="3:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C6" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="60">
+        <v>4</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="61">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="61">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C9" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="61">
+        <v>6</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="61">
+        <v>7</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="62">
+        <v>7</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="61">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="61">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C15" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C16" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="61">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C17" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-100</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="63">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C18" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="63">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-100</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="63">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C20" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="63">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="63">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -822,6 +822,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,94 +888,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,26 +1458,26 @@
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="36"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1844,19 +1844,19 @@
       <c r="B14" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +2995,7 @@
   <dimension ref="C4:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,310 +3009,310 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="3:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="68">
         <v>4</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="47" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="50">
         <v>-100</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="50">
         <v>-100</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="50">
         <v>0</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="50">
         <v>6</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="50">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="50">
         <v>7</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="50">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="69">
         <v>7</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="50">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="47" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="50">
         <v>-100</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="47" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="50">
         <v>-100</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="50">
         <v>0</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="50">
         <v>0</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="51">
         <v>-100</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="51">
         <v>-100</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="51">
         <v>-100</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="51">
         <v>-100</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="51">
         <v>-100</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="51">
         <v>-100</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="51">
         <v>-100</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="51">
         <v>-100</v>
       </c>
     </row>

--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="183">
   <si>
     <t>Models</t>
   </si>
@@ -515,6 +515,69 @@
   <si>
     <t>I-
 character_assasination</t>
+  </si>
+  <si>
+    <t>बोका</t>
+  </si>
+  <si>
+    <t>तेरिमा</t>
+  </si>
+  <si>
+    <t>गुखाने</t>
+  </si>
+  <si>
+    <t>सुकुल गुन्डा</t>
+  </si>
+  <si>
+    <t>हरिलठक</t>
+  </si>
+  <si>
+    <t>बादरनी OR बादर</t>
+  </si>
+  <si>
+    <t>घिन लाग्दो</t>
+  </si>
+  <si>
+    <t>कालो मान्छे</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पाखे OR पखिनी </t>
+  </si>
+  <si>
+    <t>पातकी</t>
+  </si>
+  <si>
+    <t>जाठी</t>
+  </si>
+  <si>
+    <t>माचिक्नि</t>
+  </si>
+  <si>
+    <t>बोक्सी</t>
+  </si>
+  <si>
+    <t>यौनकर्मी</t>
+  </si>
+  <si>
+    <t>डामाडोल</t>
+  </si>
+  <si>
+    <t>गोल्ड डीगर</t>
+  </si>
+  <si>
+    <t>बाह्र सत्ताइस</t>
+  </si>
+  <si>
+    <t>पोईमारा</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>scraped</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -525,7 +588,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +686,19 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -728,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,6 +1002,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2992,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H20"/>
+  <dimension ref="C4:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,6 +3094,8 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C17" s="46" t="s">
         <v>157</v>
       </c>
@@ -3256,7 +3346,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C18" s="46" t="s">
         <v>157</v>
       </c>
@@ -3276,7 +3366,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C19" s="46" t="s">
         <v>157</v>
       </c>
@@ -3296,7 +3386,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C20" s="46" t="s">
         <v>157</v>
       </c>
@@ -3314,6 +3404,167 @@
       </c>
       <c r="H20" s="51">
         <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L24" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L25" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="71">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L26" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="71">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L27" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L28" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" s="71">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L29" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="71">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L30" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L31" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L32" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L33" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L35" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="M35" s="71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L36" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="M36" s="71">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L37" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L38" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="M38" s="71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L39" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M39" s="71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L40" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L41" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="M41" s="71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L42" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="M42" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L43" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="73">
+        <f>SUM(M25:M42)</f>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>

--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="195">
   <si>
     <t>Models</t>
   </si>
@@ -578,6 +578,42 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>val_pr</t>
+  </si>
+  <si>
+    <t>val_rec</t>
+  </si>
+  <si>
+    <t>val_f1</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>simulated</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>non-IPV</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>1397*</t>
   </si>
 </sst>
 </file>
@@ -588,7 +624,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +736,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +784,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +1004,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,17 +1070,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,26 +1634,26 @@
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="53"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1932,19 +2020,19 @@
       <c r="B14" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
@@ -3080,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M43"/>
+  <dimension ref="C4:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:M43"/>
+    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,19 +3184,21 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="17" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="3:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="36" t="s">
@@ -3131,13 +3221,13 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="72">
         <v>4</v>
       </c>
       <c r="F6" s="39" t="s">
@@ -3151,9 +3241,9 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C7" s="63"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="40" t="s">
         <v>145</v>
       </c>
@@ -3165,9 +3255,9 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="40" t="s">
         <v>147</v>
       </c>
@@ -3239,13 +3329,13 @@
       </c>
     </row>
     <row r="12" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="73">
         <v>7</v>
       </c>
       <c r="F12" s="40" t="s">
@@ -3259,9 +3349,9 @@
       </c>
     </row>
     <row r="13" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C13" s="64"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="40" t="s">
         <v>149</v>
       </c>
@@ -3273,9 +3363,9 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C14" s="64"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="40" t="s">
         <v>150</v>
       </c>
@@ -3407,168 +3497,337 @@
       </c>
     </row>
     <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="54" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L25" s="70" t="s">
+      <c r="L25" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="53">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="M26" s="71">
+      <c r="M26" s="53">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L27" s="70" t="s">
+      <c r="L27" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="M27" s="71">
+      <c r="M27" s="53">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="M28" s="71">
+      <c r="M28" s="53">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="M29" s="71">
+      <c r="M29" s="53">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="53">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="M31" s="71">
+      <c r="M31" s="53">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="53">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L33" s="70" t="s">
+    <row r="33" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L33" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="M33" s="71">
+      <c r="M33" s="53">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L34" s="70" t="s">
+    <row r="34" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="M34" s="71">
+      <c r="M34" s="53">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L35" s="70" t="s">
+    <row r="35" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L35" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="M35" s="71">
+      <c r="M35" s="53">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L36" s="70" t="s">
+    <row r="36" spans="12:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="L36" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="53">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L37" s="70" t="s">
+      <c r="X36" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="12:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="L37" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="53">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L38" s="70" t="s">
+      <c r="X37" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y37" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z37" s="79">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="38" spans="12:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="L38" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="M38" s="71">
+      <c r="M38" s="53">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L39" s="70" t="s">
+      <c r="X38" s="78"/>
+      <c r="Y38" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z38" s="79">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="39" spans="12:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="L39" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="M39" s="71">
+      <c r="M39" s="53">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L40" s="70" t="s">
+      <c r="X39" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y39" s="80"/>
+      <c r="Z39" s="79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L40" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="M40" s="71">
+      <c r="M40" s="53">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L41" s="70" t="s">
+    <row r="41" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L41" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="53">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L42" s="70" t="s">
+    <row r="42" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L42" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="M42" s="71">
+      <c r="M42" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="12:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L43" s="73" t="s">
+    <row r="43" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L43" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="M43" s="73">
+      <c r="M43" s="55">
         <f>SUM(M25:M42)</f>
         <v>1107</v>
       </c>
     </row>
+    <row r="47" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P47" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="R47" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="S47" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="T47" s="84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="12:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P48" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="75">
+        <v>0.90189520624303199</v>
+      </c>
+      <c r="R48" s="75">
+        <v>0.87106017191977003</v>
+      </c>
+      <c r="S48" s="75">
+        <v>0.87608069164265101</v>
+      </c>
+      <c r="T48" s="75">
+        <v>0.87356321839080397</v>
+      </c>
+    </row>
+    <row r="49" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P49" s="74">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="75">
+        <v>0.92976588628762502</v>
+      </c>
+      <c r="R49" s="75">
+        <v>0.91764705882352904</v>
+      </c>
+      <c r="S49" s="75">
+        <v>0.89913544668587897</v>
+      </c>
+      <c r="T49" s="75">
+        <v>0.90829694323144095</v>
+      </c>
+    </row>
+    <row r="50" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P50" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="75">
+        <v>0.90523968784838305</v>
+      </c>
+      <c r="R50" s="75">
+        <v>0.88790560471976399</v>
+      </c>
+      <c r="S50" s="75">
+        <v>0.86494252873563204</v>
+      </c>
+      <c r="T50" s="75">
+        <v>0.87627365356622899</v>
+      </c>
+    </row>
+    <row r="51" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P51" s="74">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="75">
+        <v>0.89743589743589702</v>
+      </c>
+      <c r="R51" s="75">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="S51" s="75">
+        <v>0.83908045977011403</v>
+      </c>
+      <c r="T51" s="75">
+        <v>0.86390532544378695</v>
+      </c>
+    </row>
+    <row r="52" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P52" s="74">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="75">
+        <v>0.91517857142857095</v>
+      </c>
+      <c r="R52" s="75">
+        <v>0.87327823691460005</v>
+      </c>
+      <c r="S52" s="75">
+        <v>0.91354466858789596</v>
+      </c>
+      <c r="T52" s="75">
+        <v>0.89295774647887305</v>
+      </c>
+    </row>
+    <row r="53" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P53" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q53" s="82">
+        <v>0.90990304984870196</v>
+      </c>
+      <c r="R53" s="83">
+        <v>0.88802699496333704</v>
+      </c>
+      <c r="S53" s="83">
+        <v>0.87855675908443398</v>
+      </c>
+      <c r="T53" s="83">
+        <v>0.88299937742222701</v>
+      </c>
+    </row>
+    <row r="54" spans="16:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P54" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q54" s="83">
+        <v>1.2880855881715199E-2</v>
+      </c>
+      <c r="R54" s="83">
+        <v>1.86257653909894E-2</v>
+      </c>
+      <c r="S54" s="83">
+        <v>2.9144007018341401E-2</v>
+      </c>
+      <c r="T54" s="83">
+        <v>1.7592578191873001E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X36:Y36"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C6:C8"/>
